--- a/JavaPrograms/Checklist of DSA-System Design-Java-OOPS-Mastery.xlsx
+++ b/JavaPrograms/Checklist of DSA-System Design-Java-OOPS-Mastery.xlsx
@@ -12,7 +12,7 @@
     <sheet name="FEB 2026" sheetId="3" r:id="rId3"/>
     <sheet name="MARCH 2026" sheetId="4" r:id="rId4"/>
     <sheet name="APRIL 2026" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="After April 2026" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>🗓️ NOV 2025 – DEC 2025 → Arrays + Searching + Sorting + Basics</t>
   </si>
@@ -106,28 +106,7 @@
     <t>You can write clean recursive code and reason through it (no fear of “stack overflow” thinking).</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14.05"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">🗓️ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14.05"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FEB 2026 → Linked List, Stack, Queue</t>
-    </r>
+    <t>🗓️ FEB 2026 → Linked List, Stack, Queue</t>
   </si>
   <si>
     <t>Singly &amp; Doubly Linked List</t>
@@ -148,28 +127,7 @@
     <t>You visualize pointers easily and manipulate nodes confidently.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14.05"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">🗓️ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14.05"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MAR 2026 → Trees, Graphs, Recursion 2.0</t>
-    </r>
+    <t>🗓️ MAR 2026 → Trees, Graphs, Recursion 2.0</t>
   </si>
   <si>
     <t>Binary Tree, BST</t>
@@ -220,7 +178,7 @@
     <t>Practice (LeetCode tags: DP, Greedy, Bit)</t>
   </si>
   <si>
-    <t>~50ā€“70 problems.</t>
+    <t>70–90 problems.</t>
   </si>
   <si>
     <t>Milestone (Apr End):</t>
@@ -246,11 +204,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Mayā€“Jun 2026)</t>
+      <t xml:space="preserve"> (May–Jun 2026)</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Project Building</t>
     </r>
     <r>
@@ -265,13 +231,21 @@
     </r>
   </si>
   <si>
-    <t>ā†’ 2 real-world scalable apps for resume &amp; interviews.</t>
+    <t>→ 2 real-world scalable apps for resume &amp; interviews.</t>
   </si>
   <si>
     <t>Your Rules (Non-Negotiable)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>No Zero Days:</t>
     </r>
     <r>
@@ -287,7 +261,15 @@
   </si>
   <si>
     <r>
-      <t>Write Code, Donā€™t Copy:</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Write Code, Don't Copy:</t>
     </r>
     <r>
       <rPr>
@@ -312,11 +294,19 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> maintain ā€DSA Journal ā€“ Swarajā€¯ sheet.</t>
+      <t xml:space="preserve"> maintain “DSA Journal – Swaraj” sheet.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Every 2 weeks:</t>
     </r>
     <r>
@@ -332,6 +322,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Every Month:</t>
     </r>
     <r>
@@ -366,11 +364,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -382,13 +387,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14.05"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -396,22 +394,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1048,50 +1045,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1657,90 +1663,90 @@
       </c>
     </row>
     <row r="2" ht="21" spans="1:2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" ht="18" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" ht="18" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" ht="18" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" ht="18" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" ht="18" spans="1:2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" ht="18" spans="1:2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" ht="18" spans="1:2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" ht="21" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" ht="18" spans="1:2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" ht="18" spans="1:2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" ht="21" spans="1:2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" ht="21" spans="1:2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1754,7 +1760,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1764,7 +1770,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="25.8" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -1772,70 +1778,70 @@
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" ht="21" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" ht="21" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" ht="21" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" ht="21" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="15"/>
     </row>
     <row r="7" customFormat="1" ht="21" spans="1:2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" s="8" customFormat="1" ht="23.4" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" s="12" customFormat="1" ht="23.4" spans="1:2">
+      <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" ht="21" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="15"/>
     </row>
     <row r="10" customFormat="1" ht="21" spans="1:2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" s="8" customFormat="1" ht="23.4" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="23.4" spans="1:2">
+      <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" ht="21" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1846,61 +1852,77 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="93.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="124.888888888889" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:1">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="25.8" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="23.4" spans="1:2">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" ht="21" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" ht="21" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" ht="21" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" ht="23.4" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" ht="21" spans="1:2">
+      <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" ht="23.4" spans="1:2">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" ht="21" spans="1:2">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="B10" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1911,71 +1933,93 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A12" sqref="A2 A9 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="79.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="98.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="59.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:1">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="25.8" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="23.4" spans="1:2">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" ht="21" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" ht="21" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" ht="21" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" ht="21" spans="1:2">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" ht="21" spans="1:2">
+      <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" ht="23.4" spans="1:2">
+      <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" ht="21" spans="1:2">
+      <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" ht="23.4" spans="1:2">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" ht="21" spans="1:2">
+      <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="B13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1986,76 +2030,99 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="98" customWidth="1"/>
+    <col min="1" max="1" width="115.777777777778" customWidth="1"/>
+    <col min="2" max="2" width="42.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:1">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="25.8" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="23.4" spans="1:2">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" ht="21" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" ht="21" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" ht="21" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" ht="21" spans="1:2">
+      <c r="A6" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" ht="21" spans="1:2">
+      <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" ht="21" spans="1:2">
+      <c r="A8" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" ht="23.4" spans="1:2">
+      <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" ht="21" spans="1:2">
+      <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" ht="23.4" spans="1:2">
+      <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" ht="21" spans="1:2">
+      <c r="A14" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="B14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2066,68 +2133,93 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="69.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="43.4444444444444" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="23.4" spans="1:1">
+    <row r="1" ht="25.8" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" ht="23.4" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" ht="23.4" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
         <v>61</v>
       </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
